--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1929.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1929.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.832487338551942</v>
+        <v>0.6557395458221436</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.521864652633667</v>
       </c>
       <c r="C1">
-        <v>2.13691443239439</v>
+        <v>4.860641956329346</v>
       </c>
       <c r="D1">
-        <v>1.418591897143433</v>
+        <v>2.812721729278564</v>
       </c>
       <c r="E1">
-        <v>1.173611806892754</v>
+        <v>1.215299010276794</v>
       </c>
     </row>
   </sheetData>
